--- a/dados.xlsx
+++ b/dados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>País</t>
   </si>
@@ -598,21 +598,6 @@
   </si>
   <si>
     <t>Zimbábue</t>
-  </si>
-  <si>
-    <t>Footnotes</t>
-  </si>
-  <si>
-    <t>Unit of measure: Deaths per 1000 children aged 1</t>
-  </si>
-  <si>
-    <t>Observation Status: Normal value</t>
-  </si>
-  <si>
-    <t>Data Source: UN_IGME</t>
-  </si>
-  <si>
-    <t>Current age: Total</t>
   </si>
 </sst>
 </file>
@@ -7097,29 +7082,19 @@
     </row>
     <row r="195" ht="15.75" customHeight="1"/>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1"/>
     <row r="202" ht="15.75" customHeight="1"/>
